--- a/PLANIFICACIÓN.xlsx
+++ b/PLANIFICACIÓN.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-GLOBAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90736DCE-7AC3-4FC8-A4D8-603F862DD0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62C172D-4B90-4398-9289-2FC14C03FF3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB4D0357-4263-4496-B482-8549C20015BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="SIS" sheetId="1" r:id="rId1"/>
-    <sheet name="Pueblos Indígenas " sheetId="2" r:id="rId2"/>
-    <sheet name="Migración " sheetId="3" r:id="rId3"/>
+    <sheet name="Global" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
-  <si>
-    <t>DATA SIS</t>
-  </si>
-  <si>
-    <t>M. Victoria C.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">Producto Inmediato </t>
   </si>
@@ -53,115 +45,43 @@
     <t>Producto Corto Plazo</t>
   </si>
   <si>
-    <t>Marco general SIS</t>
-  </si>
-  <si>
-    <t>Conceptos</t>
-  </si>
-  <si>
-    <t>Organismos Internacionales</t>
-  </si>
-  <si>
-    <t>Salvaguardas por organismos</t>
-  </si>
-  <si>
-    <t>Categoría de salvaguardas</t>
-  </si>
-  <si>
-    <t>Ambientales: Biodiversidad</t>
-  </si>
-  <si>
-    <t>Ambientales: Agua</t>
-  </si>
-  <si>
-    <t>Ambientales: suelo</t>
-  </si>
-  <si>
-    <t>Ambientales: bosques</t>
-  </si>
-  <si>
-    <t>Sociales: Género</t>
-  </si>
-  <si>
-    <t>Sociales: Pueblos Indígenas</t>
-  </si>
-  <si>
-    <t>Evaluación ambiental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sociales: Patrimonio Cultural </t>
-  </si>
-  <si>
-    <t>Sociales: Reasentamiento involuntario</t>
-  </si>
-  <si>
-    <t>Evaluación social</t>
-  </si>
-  <si>
-    <t>Indicadores de acuerdo a salvaguardas</t>
-  </si>
-  <si>
-    <t>Configuración</t>
-  </si>
-  <si>
-    <t>Indicador</t>
-  </si>
-  <si>
-    <t>Reportes de salvaguardas</t>
-  </si>
-  <si>
-    <t>Reportes por países</t>
-  </si>
-  <si>
-    <t>Formatos de reportes</t>
-  </si>
-  <si>
-    <t>Screening</t>
-  </si>
-  <si>
-    <t>Formato de screening</t>
-  </si>
-  <si>
-    <t>vinculo con salvaguarda</t>
-  </si>
-  <si>
-    <t>Pobreza</t>
-  </si>
-  <si>
-    <t>Áreas Protegidas</t>
-  </si>
-  <si>
-    <t>Bosques</t>
-  </si>
-  <si>
-    <t>Zonas rurales</t>
-  </si>
-  <si>
-    <t>Zonas urbanas</t>
-  </si>
-  <si>
-    <t>Desempleo</t>
-  </si>
-  <si>
-    <t>Género</t>
-  </si>
-  <si>
-    <t>nivel educativo</t>
-  </si>
-  <si>
-    <t>ingresos</t>
-  </si>
-  <si>
-    <t>Municipios</t>
-  </si>
-  <si>
-    <t>Perfil socioeconómico</t>
-  </si>
-  <si>
-    <t>Geoespacial</t>
-  </si>
-  <si>
-    <t>Cartografía</t>
+    <t>DATA GLOBAL</t>
+  </si>
+  <si>
+    <t>M. Victoria C. y Karen F</t>
+  </si>
+  <si>
+    <t>Información general</t>
+  </si>
+  <si>
+    <t>Contexto financiero</t>
+  </si>
+  <si>
+    <t>Base de datos de proyectos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Links </t>
+  </si>
+  <si>
+    <t>Perfil de las OIG</t>
+  </si>
+  <si>
+    <t>Cooperación internacional</t>
+  </si>
+  <si>
+    <t>Procedimientos a fuentes financieras</t>
+  </si>
+  <si>
+    <t>Tipos de proyectos</t>
+  </si>
+  <si>
+    <t>Detalles de proyectos</t>
+  </si>
+  <si>
+    <t>Proyectos por países</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorías de proyectos </t>
   </si>
 </sst>
 </file>
@@ -226,15 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7DAA83-D4DB-4005-9992-9EED1162C676}">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -562,347 +479,73 @@
     <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FECEB5-2651-4729-8995-C1A41E5BB4E6}">
-  <dimension ref="B3:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="B3:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FC5E25-24EB-4CE8-8F5B-0CC86EB2B7E6}">
-  <dimension ref="B3:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
